--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value756.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value756.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9674940661354759</v>
+        <v>1.010077476501465</v>
       </c>
       <c r="B1">
-        <v>2.356937043771866</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.891085689551687</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.296908598060091</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.245225395844157</v>
+        <v>1.209010243415833</v>
       </c>
     </row>
   </sheetData>
